--- a/Supp_mat/AppendixTable1EpigraphDBIVWresults.xlsx
+++ b/Supp_mat/AppendixTable1EpigraphDBIVWresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="61">
   <si>
     <t xml:space="preserve">id.exposure</t>
   </si>
@@ -70,15 +70,6 @@
     <t xml:space="preserve">Inverse variance weighted</t>
   </si>
   <si>
-    <t xml:space="preserve">0,848483141484749903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,27990078432119692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,43445859885226e-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">Type 2 diabetes|ieu-a-26</t>
   </si>
   <si>
@@ -88,15 +79,6 @@
     <t xml:space="preserve">Omega-3 fatty acids</t>
   </si>
   <si>
-    <t xml:space="preserve">0,628121318641709503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,17499980284891692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,31606880011795e-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omega-3 fatty acids|met-c-855</t>
   </si>
   <si>
@@ -106,15 +88,6 @@
     <t xml:space="preserve">Total fatty acids</t>
   </si>
   <si>
-    <t xml:space="preserve">0,621963489977919393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,17512586528166216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,83008918879167e-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total fatty acids|met-c-936</t>
   </si>
   <si>
@@ -124,45 +97,18 @@
     <t xml:space="preserve">Serum total triglycerides</t>
   </si>
   <si>
-    <t xml:space="preserve">0,362758601838269468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,13971111507857434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,41814731917746e-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">Serum total triglycerides|met-c-934</t>
   </si>
   <si>
     <t xml:space="preserve">ebi-a-GCST005047</t>
   </si>
   <si>
-    <t xml:space="preserve">0,315778992479938625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,18187897236949496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,25277769293187e-02</t>
-  </si>
-  <si>
     <t xml:space="preserve">Type 2 diabetes|ebi-a-GCST005047</t>
   </si>
   <si>
     <t xml:space="preserve">ieu-a-23</t>
   </si>
   <si>
-    <t xml:space="preserve">0,274803241666736864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,20458896815480823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,79208266551868e-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Type 2 diabetes|ieu-a-23</t>
   </si>
   <si>
@@ -178,15 +124,6 @@
     <t xml:space="preserve">Morning/evening person (chronotype)</t>
   </si>
   <si>
-    <t xml:space="preserve">0,217568077388615305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,07987431521391895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,45198768878480e-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">Testosterone levels|ebi-a-GCST005074</t>
   </si>
   <si>
@@ -196,15 +133,6 @@
     <t xml:space="preserve">Bipolar disorder</t>
   </si>
   <si>
-    <t xml:space="preserve">0,188128000854186850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,05375165069900912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,65348324721304e-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bipolar disorder|ieu-a-808</t>
   </si>
   <si>
@@ -214,15 +142,6 @@
     <t xml:space="preserve">Waking too early</t>
   </si>
   <si>
-    <t xml:space="preserve">0,111007007676621555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,05385535462554249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,92833425133751e-02</t>
-  </si>
-  <si>
     <t xml:space="preserve">Waking too early|ukb-d-20535</t>
   </si>
   <si>
@@ -232,15 +151,6 @@
     <t xml:space="preserve">Average weekly beer plus cider intake</t>
   </si>
   <si>
-    <t xml:space="preserve">0,079437089392788790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,02409171013544959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,76264780229792e-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Average weekly beer plus cider intake|ukb-b-5174</t>
   </si>
   <si>
@@ -250,15 +160,6 @@
     <t xml:space="preserve">Triglycerides</t>
   </si>
   <si>
-    <t xml:space="preserve">0,063224101296934898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,05536976072131852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,53515323612974e-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Triglycerides|ieu-a-302</t>
   </si>
   <si>
@@ -268,84 +169,30 @@
     <t xml:space="preserve">Frequency of tiredness / lethargy in last 2 weeks</t>
   </si>
   <si>
-    <t xml:space="preserve">0,060907580132767591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,02102973913873921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,77640072311531e-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">Frequency of tiredness / lethargy in last 2 weeks|ukb-b-929</t>
   </si>
   <si>
     <t xml:space="preserve">ebi-a-GCST002216</t>
   </si>
   <si>
-    <t xml:space="preserve">0,052883162925060727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,05802131116958207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,62061597224970e-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Triglycerides|ebi-a-GCST002216</t>
   </si>
   <si>
-    <t xml:space="preserve">0,010025951037413475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,07809297527496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,97844459195386e-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">ukb-b-14315</t>
   </si>
   <si>
     <t xml:space="preserve">Treatment/medication code: nicorandil</t>
   </si>
   <si>
-    <t xml:space="preserve">0,000122086137593373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,00130425845486561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,25422313370105e-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Treatment/medication code: nicorandil|ukb-b-14315</t>
   </si>
   <si>
-    <t xml:space="preserve">-0,007487176819395859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,00259031813126230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,84694606271718e-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">met-a-450</t>
   </si>
   <si>
     <t xml:space="preserve">Bilirubin (Z,Z)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0,011946157513486605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,05095499819700061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,14639329512002e-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bilirubin (Z,Z)|met-a-450</t>
   </si>
   <si>
@@ -355,150 +202,23 @@
     <t xml:space="preserve">Subjective well-being</t>
   </si>
   <si>
-    <t xml:space="preserve">-0,015734677663606738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,03965938922304008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,91555265496349e-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subjective well-being|ebi-a-GCST003766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,022370533401845180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,07786626755993739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,73887000791875e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,049972163694869717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,03853774562102758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,94732027196156e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,073228873050681320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,07537597251569653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,31291985537278e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,073228873050681334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,075734057301290125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,06527565008554564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,45959604305254e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,080807381193189781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,10453216750710893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,39499645677233e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,109692240700700216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,16527473367458154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,06884663508962e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,130385123616335252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,13467585988321673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,32974319509444e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,138670927664984595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,02142951499663899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,73403146661756e-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,140931229760198007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,17024353568663869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,07771694302693e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,191340273327207933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,08212540286959372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,98138207133037e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,207200149864788796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,09038411125892853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,18802674502471e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,366150502134609146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,21938185214599809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,51154006469200e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,455317357116744870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,23661815189685761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,43206716209570e-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -558,8 +278,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,12 +307,12 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.55"/>
@@ -654,17 +378,17 @@
       <c r="F2" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="0" t="n">
+        <v>0.84848314148475</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.279900784321197</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.00043445859885226</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0.013</v>
@@ -675,10 +399,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>14</v>
@@ -689,17 +413,17 @@
       <c r="F3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>24</v>
+      <c r="G3" s="0" t="n">
+        <v>0.628121318641709</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.174999802848917</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>3.1606880011795E-005</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>0.00372</v>
@@ -710,10 +434,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>14</v>
@@ -724,17 +448,17 @@
       <c r="F4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>30</v>
+      <c r="G4" s="0" t="n">
+        <v>0.621963489977919</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.175125865281662</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>8.3008918879167E-005</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>0.00372</v>
@@ -745,10 +469,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>14</v>
@@ -759,17 +483,17 @@
       <c r="F5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>36</v>
+      <c r="G5" s="0" t="n">
+        <v>0.362758601838269</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.139711115078574</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.00041814731917746</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>0.0301</v>
@@ -780,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>13</v>
@@ -794,17 +518,17 @@
       <c r="F6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>41</v>
+      <c r="G6" s="0" t="n">
+        <v>0.315778992479939</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.181878972369495</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.0025277769293187</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>0.176</v>
@@ -815,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>13</v>
@@ -829,17 +553,17 @@
       <c r="F7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>46</v>
+      <c r="G7" s="0" t="n">
+        <v>0.274803241666737</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.204588968154808</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.079208266551868</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>0.337</v>
@@ -847,16 +571,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>15</v>
@@ -864,17 +588,17 @@
       <c r="F8" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>54</v>
+      <c r="G8" s="0" t="n">
+        <v>0.217568077388615</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.079874315213919</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.0004519876887848</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0.0229</v>
@@ -882,16 +606,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>15</v>
@@ -899,17 +623,17 @@
       <c r="F9" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>60</v>
+      <c r="G9" s="0" t="n">
+        <v>0.188128000854187</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.0537516506990091</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>6.5348324721304E-005</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>0.00372</v>
@@ -920,10 +644,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>14</v>
@@ -934,17 +658,17 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>66</v>
+      <c r="G10" s="0" t="n">
+        <v>0.111007007676622</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.0538553546255425</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.0092833425133751</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>0.0967</v>
@@ -952,16 +676,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>15</v>
@@ -969,17 +693,17 @@
       <c r="F11" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>72</v>
+      <c r="G11" s="0" t="n">
+        <v>0.0794370893927888</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.0240917101354496</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>7.6264780229792E-005</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0.00625</v>
@@ -987,16 +711,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>15</v>
@@ -1004,17 +728,17 @@
       <c r="F12" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>78</v>
+      <c r="G12" s="0" t="n">
+        <v>0.0632241012969349</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.0553697607213185</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0.053515323612974</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>0.406</v>
@@ -1022,16 +746,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>15</v>
@@ -1039,17 +763,17 @@
       <c r="F13" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>84</v>
+      <c r="G13" s="0" t="n">
+        <v>0.0609075801327676</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.0210297391387392</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0.00077640072311531</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>0.0154</v>
@@ -1057,16 +781,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>15</v>
@@ -1074,17 +798,17 @@
       <c r="F14" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>89</v>
+      <c r="G14" s="0" t="n">
+        <v>0.0528831629250607</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.0580213111695821</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0.06206159722497</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>0.483</v>
@@ -1092,16 +816,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>15</v>
@@ -1109,17 +833,17 @@
       <c r="F15" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>93</v>
+      <c r="G15" s="0" t="n">
+        <v>0.0100259510374135</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.0780929752749634</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0.097844459195386</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>0.925</v>
@@ -1127,16 +851,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>15</v>
@@ -1144,17 +868,17 @@
       <c r="F16" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>98</v>
+      <c r="G16" s="0" t="n">
+        <v>0.000122086137593373</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.00130425845486561</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0.025422313370105</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>0.925</v>
@@ -1165,10 +889,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>14</v>
@@ -1179,17 +903,17 @@
       <c r="F17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>102</v>
+      <c r="G17" s="0" t="n">
+        <v>-0.00748717681939586</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.0025903181312623</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0.00084694606271718</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>0.0154</v>
@@ -1197,16 +921,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>15</v>
@@ -1214,17 +938,17 @@
       <c r="F18" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>107</v>
+      <c r="G18" s="0" t="n">
+        <v>-0.0119461575134866</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.0509549981970006</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0.014639329512002</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>0.869</v>
@@ -1232,16 +956,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>15</v>
@@ -1249,17 +973,17 @@
       <c r="F19" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>113</v>
+      <c r="G19" s="0" t="n">
+        <v>-0.0157346776636067</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.0396593892230401</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0.091555265496349</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>0.79</v>
@@ -1270,10 +994,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>14</v>
@@ -1284,17 +1008,17 @@
       <c r="F20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>117</v>
+      <c r="G20" s="0" t="n">
+        <v>-0.0223705334018452</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.0778662675599374</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0.073887000791875</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>0.854</v>
@@ -1305,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>14</v>
@@ -1319,17 +1043,17 @@
       <c r="F21" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>120</v>
+      <c r="G21" s="0" t="n">
+        <v>-0.0499721636948697</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.0385377456210276</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0.094732027196156</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>0.346</v>
@@ -1340,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>14</v>
@@ -1354,17 +1078,17 @@
       <c r="F22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>123</v>
+      <c r="G22" s="0" t="n">
+        <v>-0.0732288730506813</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.0753759725156965</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0.031291985537278</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>0.463</v>
@@ -1375,10 +1099,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>14</v>
@@ -1389,17 +1113,17 @@
       <c r="F23" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>123</v>
+      <c r="G23" s="0" t="n">
+        <v>-0.0732288730506813</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.0753759725156965</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0.031291985537278</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>0.463</v>
@@ -1410,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>14</v>
@@ -1424,17 +1148,17 @@
       <c r="F24" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>127</v>
+      <c r="G24" s="0" t="n">
+        <v>-0.0757340573012901</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.0652756500855456</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0.045959604305254</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>0.406</v>
@@ -1445,10 +1169,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>14</v>
@@ -1459,17 +1183,17 @@
       <c r="F25" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>130</v>
+      <c r="G25" s="0" t="n">
+        <v>-0.0808073811931898</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.104532167507109</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0.039499645677233</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>0.541</v>
@@ -1477,16 +1201,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>15</v>
@@ -1494,17 +1218,17 @@
       <c r="F26" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>133</v>
+      <c r="G26" s="0" t="n">
+        <v>-0.1096922407007</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.165274733674582</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0.006884663508962</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>0.601</v>
@@ -1515,10 +1239,10 @@
         <v>11</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>14</v>
@@ -1529,17 +1253,17 @@
       <c r="F27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>136</v>
+      <c r="G27" s="0" t="n">
+        <v>-0.130385123616335</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.134675859883217</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0.032974319509444</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>0.463</v>
@@ -1547,16 +1271,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>15</v>
@@ -1564,17 +1288,17 @@
       <c r="F28" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>139</v>
+      <c r="G28" s="0" t="n">
+        <v>-0.138670927664985</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.021429514996639</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>7.3403146661756E-012</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>3.11E-009</v>
@@ -1582,16 +1306,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>15</v>
@@ -1599,17 +1323,17 @@
       <c r="F29" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>142</v>
+      <c r="G29" s="0" t="n">
+        <v>-0.140931229760198</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.170243535686639</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0.007771694302693</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>0.522</v>
@@ -1617,16 +1341,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>15</v>
@@ -1634,17 +1358,17 @@
       <c r="F30" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>145</v>
+      <c r="G30" s="0" t="n">
+        <v>-0.191340273327208</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.0821254028695937</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0.0098138207133037</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>0.0576</v>
@@ -1652,16 +1376,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>15</v>
@@ -1669,17 +1393,17 @@
       <c r="F31" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>148</v>
+      <c r="G31" s="0" t="n">
+        <v>-0.207200149864789</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.0903841112589285</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0.0018802674502471</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>0.0583</v>
@@ -1687,7 +1411,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>12</v>
@@ -1696,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>15</v>
@@ -1704,17 +1428,17 @@
       <c r="F32" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>151</v>
+      <c r="G32" s="0" t="n">
+        <v>-0.366150502134609</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.219381852145998</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0.00511540064692</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>0.19</v>
@@ -1725,10 +1449,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>14</v>
@@ -1739,17 +1463,17 @@
       <c r="F33" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>154</v>
+      <c r="G33" s="0" t="n">
+        <v>-0.455317357116745</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.236618151896858</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0.004320671620957</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>0.124</v>
